--- a/Estudos_de_Caso/Estudo_de_Caso_III/Arvores_de_Decisao/Responsabilidade.xlsx
+++ b/Estudos_de_Caso/Estudo_de_Caso_III/Arvores_de_Decisao/Responsabilidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metricas" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Resp- Cumpre os compromissos fi" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Resp- Entrega os trabalhos nos " sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Resp- Entrega os trabalhos nos " sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Resp- Cumpre os compromissos fi" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Responsabilidade" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="40">
   <si>
     <t xml:space="preserve">Features</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Nota &lt; 8,0</t>
   </si>
   <si>
+    <t xml:space="preserve">Resposta para a pauta atitudinal: “Entrega os trabalhos nos prazos estabelecidos”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alto</t>
   </si>
   <si>
@@ -97,7 +100,25 @@
     <t xml:space="preserve">Não Evidenciado</t>
   </si>
   <si>
-    <t xml:space="preserve">Resposta para a pauta atitudinal: “Entrega os trabalhos nos prazos estabelecidos”</t>
+    <t xml:space="preserve">Percentual de participação em quis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentual de Tentativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resposta para a atitude RESPONSABILIDADE-”Cumpre os compromissos firmados” (Saída do Sistema Especialista - a ser preenchida pelo especialista)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se nota &gt;=8.0 Extremamente Evidenciado Senão Evidenciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se nota &gt;=8.0 Muito Evidenciado Senão Evidenciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se 6.0 &lt; nota, 8.0 Muito Evidenciado Senão Evidenciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não evidenciado</t>
   </si>
   <si>
     <t xml:space="preserve">Cumpre os compromissos Firmados</t>
@@ -131,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -193,6 +214,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -319,34 +354,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,244 +820,238 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="67.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="50.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="146.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="146.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="87.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="87.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="18" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="D2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="18" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="E9" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E13" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1059,241 +1088,479 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="87.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="87.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="67.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="50.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="13" width="61.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18" t="s">
+    <row r="1" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="18" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="18" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1332,7 +1599,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1344,289 +1611,289 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>27</v>
+      <c r="A1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="C25" s="21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
